--- a/TESTREPORT/excel/testcases.xlsx
+++ b/TESTREPORT/excel/testcases.xlsx
@@ -2187,7 +2187,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2255,7 @@
         <v>45925.395138888889</v>
       </c>
       <c r="D2" s="9" t="str">
-        <f t="shared" ref="D2:D46" si="0">TEXT( C2-B2,"h:mm")</f>
+        <f t="shared" ref="D2" si="0">TEXT( C2-B2,"h:mm")</f>
         <v>0:59</v>
       </c>
       <c r="E2" s="2">
@@ -2265,7 +2265,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H2" s="10">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>45925.395833333336</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D3:D46" si="1">TEXT( C3-B3,"h:mm")</f>
         <v>1:00</v>
       </c>
       <c r="E3" s="2">
@@ -2333,7 +2333,7 @@
         <v>45925.396527777775</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1:01</v>
       </c>
       <c r="E4" s="2">
@@ -2369,7 +2369,7 @@
         <v>45925.520138888889</v>
       </c>
       <c r="D5" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3:59</v>
       </c>
       <c r="E5" s="2">
@@ -2405,7 +2405,7 @@
         <v>45925.520833333336</v>
       </c>
       <c r="D6" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4:00</v>
       </c>
       <c r="E6" s="2">
@@ -2441,7 +2441,7 @@
         <v>45925.521527777775</v>
       </c>
       <c r="D7" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4:01</v>
       </c>
       <c r="E7" s="2">
@@ -2477,7 +2477,7 @@
         <v>45925.686805555553</v>
       </c>
       <c r="D8" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7:59</v>
       </c>
       <c r="E8" s="2">
@@ -2513,7 +2513,7 @@
         <v>45925.6875</v>
       </c>
       <c r="D9" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8:00</v>
       </c>
       <c r="E9" s="2">
@@ -2549,7 +2549,7 @@
         <v>45925.688194444447</v>
       </c>
       <c r="D10" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8:01</v>
       </c>
       <c r="E10" s="2">
@@ -2585,7 +2585,7 @@
         <v>45925.853472222225</v>
       </c>
       <c r="D11" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11:59</v>
       </c>
       <c r="E11" s="2">
@@ -2621,7 +2621,7 @@
         <v>45925.854166666664</v>
       </c>
       <c r="D12" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12:00</v>
       </c>
       <c r="E12" s="2">
@@ -2657,7 +2657,7 @@
         <v>45925.854861111111</v>
       </c>
       <c r="D13" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12:01</v>
       </c>
       <c r="E13" s="2">
@@ -2693,7 +2693,7 @@
         <v>45925.999305555553</v>
       </c>
       <c r="D14" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15:29</v>
       </c>
       <c r="E14" s="2">
@@ -2729,7 +2729,7 @@
         <v>45926</v>
       </c>
       <c r="D15" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15:30</v>
       </c>
       <c r="E15" s="2">
@@ -2765,7 +2765,7 @@
         <v>45926.000694444447</v>
       </c>
       <c r="D16" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15:31</v>
       </c>
       <c r="E16" s="2">
@@ -2801,7 +2801,7 @@
         <v>45925.395138888889</v>
       </c>
       <c r="D17" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0:59</v>
       </c>
       <c r="E17" s="2">
@@ -2837,7 +2837,7 @@
         <v>45925.395833333336</v>
       </c>
       <c r="D18" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1:00</v>
       </c>
       <c r="E18" s="2">
@@ -2873,7 +2873,7 @@
         <v>45925.396527777775</v>
       </c>
       <c r="D19" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1:01</v>
       </c>
       <c r="E19" s="2">
@@ -2909,7 +2909,7 @@
         <v>45925.520138888889</v>
       </c>
       <c r="D20" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3:59</v>
       </c>
       <c r="E20" s="2">
@@ -2945,7 +2945,7 @@
         <v>45925.520833333336</v>
       </c>
       <c r="D21" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4:00</v>
       </c>
       <c r="E21" s="2">
@@ -2981,7 +2981,7 @@
         <v>45925.521527777775</v>
       </c>
       <c r="D22" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4:01</v>
       </c>
       <c r="E22" s="2">
@@ -3017,7 +3017,7 @@
         <v>45925.686805555553</v>
       </c>
       <c r="D23" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7:59</v>
       </c>
       <c r="E23" s="2">
@@ -3053,7 +3053,7 @@
         <v>45925.6875</v>
       </c>
       <c r="D24" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8:00</v>
       </c>
       <c r="E24" s="2">
@@ -3089,7 +3089,7 @@
         <v>45925.688194444447</v>
       </c>
       <c r="D25" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8:01</v>
       </c>
       <c r="E25" s="2">
@@ -3125,7 +3125,7 @@
         <v>45925.853472222225</v>
       </c>
       <c r="D26" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11:59</v>
       </c>
       <c r="E26" s="2">
@@ -3161,7 +3161,7 @@
         <v>45925.854166666664</v>
       </c>
       <c r="D27" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12:00</v>
       </c>
       <c r="E27" s="2">
@@ -3197,7 +3197,7 @@
         <v>45925.854861111111</v>
       </c>
       <c r="D28" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12:01</v>
       </c>
       <c r="E28" s="2">
@@ -3233,7 +3233,7 @@
         <v>45925.999305555553</v>
       </c>
       <c r="D29" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15:29</v>
       </c>
       <c r="E29" s="2">
@@ -3269,7 +3269,7 @@
         <v>45926</v>
       </c>
       <c r="D30" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15:30</v>
       </c>
       <c r="E30" s="2">
@@ -3305,7 +3305,7 @@
         <v>45926.000694444447</v>
       </c>
       <c r="D31" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15:31</v>
       </c>
       <c r="E31" s="2">
@@ -3341,7 +3341,7 @@
         <v>45925.395138888889</v>
       </c>
       <c r="D32" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0:59</v>
       </c>
       <c r="E32" s="2">
@@ -3377,7 +3377,7 @@
         <v>45925.395833333336</v>
       </c>
       <c r="D33" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1:00</v>
       </c>
       <c r="E33" s="2">
@@ -3413,7 +3413,7 @@
         <v>45925.396527777775</v>
       </c>
       <c r="D34" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1:01</v>
       </c>
       <c r="E34" s="2">
@@ -3449,7 +3449,7 @@
         <v>45925.520138888889</v>
       </c>
       <c r="D35" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3:59</v>
       </c>
       <c r="E35" s="2">
@@ -3485,7 +3485,7 @@
         <v>45925.520833333336</v>
       </c>
       <c r="D36" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4:00</v>
       </c>
       <c r="E36" s="2">
@@ -3521,7 +3521,7 @@
         <v>45925.521527777775</v>
       </c>
       <c r="D37" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4:01</v>
       </c>
       <c r="E37" s="2">
@@ -3557,7 +3557,7 @@
         <v>45925.686805555553</v>
       </c>
       <c r="D38" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7:59</v>
       </c>
       <c r="E38" s="2">
@@ -3593,7 +3593,7 @@
         <v>45925.6875</v>
       </c>
       <c r="D39" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8:00</v>
       </c>
       <c r="E39" s="2">
@@ -3629,7 +3629,7 @@
         <v>45925.688194444447</v>
       </c>
       <c r="D40" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8:01</v>
       </c>
       <c r="E40" s="2">
@@ -3665,7 +3665,7 @@
         <v>45925.853472222225</v>
       </c>
       <c r="D41" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11:59</v>
       </c>
       <c r="E41" s="2">
@@ -3701,7 +3701,7 @@
         <v>45925.854166666664</v>
       </c>
       <c r="D42" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12:00</v>
       </c>
       <c r="E42" s="2">
@@ -3737,7 +3737,7 @@
         <v>45925.854861111111</v>
       </c>
       <c r="D43" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12:01</v>
       </c>
       <c r="E43" s="2">
@@ -3773,7 +3773,7 @@
         <v>45925.999305555553</v>
       </c>
       <c r="D44" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15:29</v>
       </c>
       <c r="E44" s="2">
@@ -3809,7 +3809,7 @@
         <v>45926</v>
       </c>
       <c r="D45" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15:30</v>
       </c>
       <c r="E45" s="2">
@@ -3845,7 +3845,7 @@
         <v>45926.000694444447</v>
       </c>
       <c r="D46" s="9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15:31</v>
       </c>
       <c r="E46" s="2">
